--- a/CATIA/603.000.05.000_Steuer-Platine/SMD BOM 603.000.05.000, 603.000.04.005.xlsx
+++ b/CATIA/603.000.05.000_Steuer-Platine/SMD BOM 603.000.05.000, 603.000.04.005.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4B16130F82C9D6EA5BFA6C0DDF80C8D161B471B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E24EDB75-2493-4CE7-8E9C-9405272F3E98}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_Driver Board_PCB1_2022-10-3" state="visible" r:id="rId4"/>
+    <sheet name="BOM_Driver Board_PCB1_2022-10-3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -128,19 +132,25 @@
   </si>
   <si>
     <t>C165948</t>
+  </si>
+  <si>
+    <t>Power connector</t>
+  </si>
+  <si>
+    <t>Servo connector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,14 +513,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -553,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -585,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -681,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -737,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -745,6 +761,6 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>